--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Yearly Results of Danlaw Technologies India(in Rs. Cr.)</t>
   </si>
@@ -164,6 +164,81 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>8.73</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>5.87</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>6.91</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>8.34</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
+    <t>11.49</t>
+  </si>
+  <si>
+    <t>18.21</t>
+  </si>
+  <si>
+    <t>25.98</t>
+  </si>
+  <si>
+    <t>15.34</t>
+  </si>
+  <si>
+    <t>27.81</t>
+  </si>
+  <si>
+    <t>52.20</t>
+  </si>
+  <si>
+    <t>167.14</t>
+  </si>
+  <si>
+    <t>210.98</t>
   </si>
 </sst>
 </file>
@@ -608,20 +683,20 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>1.26</v>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1.26</v>
       </c>
       <c r="D2">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E2">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F2">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G2">
         <v>0.05</v>
@@ -639,7 +714,7 @@
         <v>1.38</v>
       </c>
       <c r="L2">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M2">
         <v>1.37</v>
@@ -648,7 +723,7 @@
         <v>1.37</v>
       </c>
       <c r="O2">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="P2">
         <v>1.37</v>
@@ -663,42 +738,42 @@
         <v>25.08</v>
       </c>
       <c r="T2">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U2">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V2">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W2">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X2">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y2">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>7.08</v>
+      <c r="B3" t="s">
+        <v>51</v>
       </c>
       <c r="C3">
         <v>7.08</v>
       </c>
       <c r="D3">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E3">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G3">
         <v>0.36</v>
@@ -716,7 +791,7 @@
         <v>4.46</v>
       </c>
       <c r="L3">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M3">
         <v>4.45</v>
@@ -725,7 +800,7 @@
         <v>4.45</v>
       </c>
       <c r="O3">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="P3">
         <v>4.45</v>
@@ -740,42 +815,42 @@
         <v>27.15</v>
       </c>
       <c r="T3">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U3">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V3">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W3">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X3">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y3">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>3.57</v>
+      <c r="B4" t="s">
+        <v>52</v>
       </c>
       <c r="C4">
         <v>3.57</v>
       </c>
       <c r="D4">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E4">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G4">
         <v>0.79</v>
@@ -793,7 +868,7 @@
         <v>-1.41</v>
       </c>
       <c r="L4">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M4">
         <v>-1.41</v>
@@ -802,7 +877,7 @@
         <v>-1.41</v>
       </c>
       <c r="O4">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="P4">
         <v>-1.41</v>
@@ -817,42 +892,42 @@
         <v>26.85</v>
       </c>
       <c r="T4">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U4">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V4">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W4">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X4">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y4">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>4.52</v>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5">
         <v>4.52</v>
       </c>
       <c r="D5">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E5">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G5">
         <v>0.52</v>
@@ -870,7 +945,7 @@
         <v>-0.9</v>
       </c>
       <c r="L5">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M5">
         <v>-0.9</v>
@@ -894,16 +969,16 @@
         <v>25.81</v>
       </c>
       <c r="T5">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U5">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V5">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W5">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X5">
         <v>0.11</v>
@@ -916,20 +991,20 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>7.1</v>
+      <c r="B6" t="s">
+        <v>54</v>
       </c>
       <c r="C6">
         <v>7.1</v>
       </c>
       <c r="D6">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E6">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F6">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G6">
         <v>0.5</v>
@@ -947,7 +1022,7 @@
         <v>-0.44</v>
       </c>
       <c r="L6">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M6">
         <v>-0.44</v>
@@ -971,16 +1046,16 @@
         <v>24.32</v>
       </c>
       <c r="T6">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U6">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V6">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W6">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X6">
         <v>0.12</v>
@@ -993,20 +1068,20 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>7.9</v>
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
       <c r="C7">
         <v>7.9</v>
       </c>
       <c r="D7">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E7">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G7">
         <v>0.52</v>
@@ -1024,7 +1099,7 @@
         <v>0.5</v>
       </c>
       <c r="L7">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M7">
         <v>0.5</v>
@@ -1048,16 +1123,16 @@
         <v>24.66</v>
       </c>
       <c r="T7">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U7">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V7">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W7">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X7">
         <v>0.14</v>
@@ -1070,20 +1145,20 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>8.73</v>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8">
         <v>8.73</v>
       </c>
       <c r="D8">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E8">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G8">
         <v>0.5</v>
@@ -1101,7 +1176,7 @@
         <v>0.62</v>
       </c>
       <c r="L8">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M8">
         <v>0.62</v>
@@ -1125,16 +1200,16 @@
         <v>27.57</v>
       </c>
       <c r="T8">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U8">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V8">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W8">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X8">
         <v>0.19</v>
@@ -1147,20 +1222,20 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
-        <v>8.75</v>
+      <c r="B9" t="s">
+        <v>57</v>
       </c>
       <c r="C9">
         <v>8.75</v>
       </c>
       <c r="D9">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E9">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
         <v>0.39</v>
@@ -1178,7 +1253,7 @@
         <v>0.13</v>
       </c>
       <c r="L9">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M9">
         <v>0.13</v>
@@ -1202,16 +1277,16 @@
         <v>27.95</v>
       </c>
       <c r="T9">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U9">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V9">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W9">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X9">
         <v>0.19</v>
@@ -1224,20 +1299,20 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
-        <v>8.25</v>
+      <c r="B10" t="s">
+        <v>58</v>
       </c>
       <c r="C10">
         <v>8.25</v>
       </c>
       <c r="D10">
-        <v>20.14625</v>
+        <v>20.15</v>
       </c>
       <c r="E10">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F10">
-        <v>9.501875</v>
+        <v>9.5</v>
       </c>
       <c r="G10">
         <v>0.33</v>
@@ -1279,16 +1354,16 @@
         <v>27.82</v>
       </c>
       <c r="T10">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U10">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V10">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W10">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X10">
         <v>0.19</v>
@@ -1301,8 +1376,8 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11">
-        <v>5.87</v>
+      <c r="B11" t="s">
+        <v>59</v>
       </c>
       <c r="C11">
         <v>5.87</v>
@@ -1356,16 +1431,16 @@
         <v>17.95</v>
       </c>
       <c r="T11">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U11">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V11">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W11">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X11">
         <v>0.19</v>
@@ -1378,8 +1453,8 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12">
-        <v>4.54</v>
+      <c r="B12" t="s">
+        <v>60</v>
       </c>
       <c r="C12">
         <v>4.54</v>
@@ -1433,16 +1508,16 @@
         <v>17.59</v>
       </c>
       <c r="T12">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="U12">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="V12">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="W12">
-        <v>4.620714285714286</v>
+        <v>4.62</v>
       </c>
       <c r="X12">
         <v>0.19</v>
@@ -1455,8 +1530,8 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
-        <v>6.47</v>
+      <c r="B13" t="s">
+        <v>61</v>
       </c>
       <c r="C13">
         <v>6.47</v>
@@ -1532,8 +1607,8 @@
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14">
-        <v>6.91</v>
+      <c r="B14" t="s">
+        <v>62</v>
       </c>
       <c r="C14">
         <v>6.91</v>
@@ -1609,8 +1684,8 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15">
-        <v>8.699999999999999</v>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
       <c r="C15">
         <v>8.699999999999999</v>
@@ -1640,7 +1715,7 @@
         <v>1.86</v>
       </c>
       <c r="L15">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M15">
         <v>1.85</v>
@@ -1686,8 +1761,8 @@
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16">
-        <v>8.34</v>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
       <c r="C16">
         <v>8.34</v>
@@ -1717,7 +1792,7 @@
         <v>0.61</v>
       </c>
       <c r="L16">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M16">
         <v>0.61</v>
@@ -1763,8 +1838,8 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17">
-        <v>8.74</v>
+      <c r="B17" t="s">
+        <v>65</v>
       </c>
       <c r="C17">
         <v>8.74</v>
@@ -1794,7 +1869,7 @@
         <v>1.18</v>
       </c>
       <c r="L17">
-        <v>0.4935714285714286</v>
+        <v>0.49</v>
       </c>
       <c r="M17">
         <v>1.18</v>
@@ -1840,8 +1915,8 @@
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
-        <v>11.03</v>
+      <c r="B18" t="s">
+        <v>66</v>
       </c>
       <c r="C18">
         <v>11.03</v>
@@ -1917,8 +1992,8 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19">
-        <v>11.49</v>
+      <c r="B19" t="s">
+        <v>67</v>
       </c>
       <c r="C19">
         <v>11.49</v>
@@ -1994,8 +2069,8 @@
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20">
-        <v>18.21</v>
+      <c r="B20" t="s">
+        <v>68</v>
       </c>
       <c r="C20">
         <v>18.21</v>
@@ -2061,18 +2136,18 @@
         <v>3.01</v>
       </c>
       <c r="X20">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y20">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
-        <v>25.98</v>
+      <c r="B21" t="s">
+        <v>69</v>
       </c>
       <c r="C21">
         <v>25.98</v>
@@ -2138,18 +2213,18 @@
         <v>0.82</v>
       </c>
       <c r="X21">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y21">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22">
-        <v>15.34</v>
+      <c r="B22" t="s">
+        <v>70</v>
       </c>
       <c r="C22">
         <v>15.34</v>
@@ -2215,18 +2290,18 @@
         <v>-8.82</v>
       </c>
       <c r="X22">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y22">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23">
-        <v>27.81</v>
+      <c r="B23" t="s">
+        <v>71</v>
       </c>
       <c r="C23">
         <v>27.81</v>
@@ -2235,7 +2310,7 @@
         <v>18.25</v>
       </c>
       <c r="E23">
-        <v>0.05466666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
         <v>9.85</v>
@@ -2292,18 +2367,18 @@
         <v>-7.25</v>
       </c>
       <c r="X23">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y23">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24">
-        <v>52.2</v>
+      <c r="B24" t="s">
+        <v>72</v>
       </c>
       <c r="C24">
         <v>52.2</v>
@@ -2369,18 +2444,18 @@
         <v>11.03</v>
       </c>
       <c r="X24">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y24">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25">
-        <v>167.14</v>
+      <c r="B25" t="s">
+        <v>73</v>
       </c>
       <c r="C25">
         <v>167.14</v>
@@ -2446,18 +2521,18 @@
         <v>14.89</v>
       </c>
       <c r="X25">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y25">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26">
-        <v>210.98</v>
+      <c r="B26" t="s">
+        <v>74</v>
       </c>
       <c r="C26">
         <v>210.98</v>
@@ -2523,10 +2598,10 @@
         <v>45.63</v>
       </c>
       <c r="X26">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="Y26">
-        <v>47.94733333333333</v>
+        <v>47.95</v>
       </c>
     </row>
   </sheetData>
